--- a/gd/玩法规划/金钱、经验试炼设计文档.xlsx
+++ b/gd/玩法规划/金钱、经验试炼设计文档.xlsx
@@ -9,14 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1335" yWindow="1905" windowWidth="35475" windowHeight="16740" activeTab="1"/>
+    <workbookView xWindow="1335" yWindow="1905" windowWidth="35475" windowHeight="16740" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="逻辑设计" sheetId="1" r:id="rId1"/>
     <sheet name="boss_jiuweihu——新增" sheetId="3" r:id="rId2"/>
     <sheet name="boss_huangjinzhiling——新增" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="150001"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="220">
   <si>
     <t>金钱、经验试炼</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -686,10 +686,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>躯壳，挂接点名：wp_Shell</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>Shell</t>
   </si>
   <si>
@@ -775,13 +771,105 @@
   <si>
     <t>弱点4变为隐藏(显示mesh)</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以复用</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>复用 182- 210</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>双手放下，歪斜身体 摇头晃脑</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>可复用</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>可复用 后面吼叫变成胜利，爬出来后就直接抖一下待机就行</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>复用 400-430</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>复用500-540 转圈时候打开双臂</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>复用状态1动作，增加内部黑人死亡动作</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>复用550-600</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>挺出内在，内在的黑人歪斜低头摇晃</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>抖动身体</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>复用15-40</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>身体微微漂浮着左右摇晃，尾巴轻盈的漂浮上下动，双手微微抬起做准备状。</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>尾巴要出一团团，很蓬松漂浮的感觉</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>尾巴支撑，轻盈的向后一跳，脱离战场的感觉</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>尾巴把自己撑起来，然后双手抱胸，轻蔑的感觉。</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>身体歪斜尾巴分散的摊开</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>身体抖动，尾巴蓬松的抖动一下。</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>双手向前推，尾巴尖全部朝前</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>趴在地上，胸口聚集能量，尾巴抖动像有强风吹过。 不要挡住胸和头</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>手放在头前方念咒，持续引导一会，身体轻轻漂浮，尾巴也蓬松的漂浮</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>440蓄力接发出690-700</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>躯壳，挂接点名：wp_shell</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -854,6 +942,18 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -913,7 +1013,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -989,6 +1089,39 @@
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1012,21 +1145,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1857,32 +1975,32 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>885825</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1733550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>2206970</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>1556671</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>664058</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="10" name="组合 9"/>
+        <xdr:cNvPr id="18" name="组合 17"/>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="885825" y="904875"/>
-          <a:ext cx="3226145" cy="2876550"/>
+          <a:off x="447675" y="1009650"/>
+          <a:ext cx="3013996" cy="1473683"/>
           <a:chOff x="10020299" y="5553075"/>
           <a:chExt cx="3226145" cy="3038475"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="11" name="图片 10"/>
+          <xdr:cNvPr id="19" name="图片 18"/>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1"/>
           </xdr:cNvPicPr>
@@ -1905,7 +2023,7 @@
       </xdr:pic>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="12" name="组合 11"/>
+          <xdr:cNvPr id="25" name="组合 24"/>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -1918,7 +2036,7 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="23" name="文本框 22"/>
+            <xdr:cNvPr id="29" name="文本框 28"/>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -1969,7 +2087,7 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="24" name="椭圆 23"/>
+            <xdr:cNvPr id="30" name="椭圆 29"/>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -2015,7 +2133,7 @@
       </xdr:grpSp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="20" name="组合 19"/>
+          <xdr:cNvPr id="26" name="组合 25"/>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -2028,7 +2146,7 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="21" name="文本框 20"/>
+            <xdr:cNvPr id="27" name="文本框 26"/>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -2079,7 +2197,7 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="22" name="椭圆 21"/>
+            <xdr:cNvPr id="28" name="椭圆 27"/>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -2126,6 +2244,196 @@
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>665071</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>257673</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>2303587</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>1332465</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="图片 30"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13114246" y="6306048"/>
+          <a:ext cx="1638516" cy="1074792"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>3467100</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>292286</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="图片 31"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13058775" y="5972175"/>
+          <a:ext cx="2857500" cy="368486"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>797300</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>518210</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>2228850</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1810806</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="图片 32"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13246475" y="9614585"/>
+          <a:ext cx="1431550" cy="1292596"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>122144</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>53426</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>3788287</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>484476</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="图片 33"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12571319" y="9149801"/>
+          <a:ext cx="3666143" cy="431050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>69849</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>3587563</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1482209</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="图片 34"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13011150" y="7489824"/>
+          <a:ext cx="3025588" cy="1412360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2134,14 +2442,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>850901</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:colOff>869951</xdr:colOff>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>168276</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>2181226</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:colOff>2200276</xdr:colOff>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>94226</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -2151,7 +2459,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="850901" y="3578226"/>
+          <a:off x="869951" y="3616326"/>
           <a:ext cx="3930650" cy="4040750"/>
           <a:chOff x="5699126" y="4711701"/>
           <a:chExt cx="3930650" cy="3697850"/>
@@ -2424,7 +2732,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="800100" y="847725"/>
-          <a:ext cx="4032250" cy="2457450"/>
+          <a:ext cx="4032250" cy="2667000"/>
           <a:chOff x="2730500" y="704850"/>
           <a:chExt cx="4311167" cy="2971800"/>
         </a:xfrm>
@@ -2929,8 +3237,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P116"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="G78" sqref="G78:H79"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="E89" sqref="E89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -3498,7 +3806,7 @@
       <c r="C69" s="6"/>
     </row>
     <row r="70" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B70" s="25" t="s">
+      <c r="B70" s="36" t="s">
         <v>117</v>
       </c>
       <c r="C70" s="1" t="s">
@@ -3515,11 +3823,11 @@
       </c>
       <c r="G70" s="23"/>
       <c r="H70" s="23"/>
-      <c r="I70" s="26" t="s">
+      <c r="I70" s="37" t="s">
         <v>118</v>
       </c>
       <c r="J70" s="23" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K70" s="23" t="s">
         <v>120</v>
@@ -3533,7 +3841,7 @@
       <c r="N70" s="23"/>
     </row>
     <row r="71" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B71" s="25"/>
+      <c r="B71" s="36"/>
       <c r="D71" s="1" t="s">
         <v>128</v>
       </c>
@@ -3545,10 +3853,10 @@
       </c>
       <c r="G71" s="23"/>
       <c r="H71" s="23"/>
-      <c r="I71" s="26"/>
+      <c r="I71" s="37"/>
       <c r="J71" s="23"/>
       <c r="K71" s="23" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L71" s="23" t="s">
         <v>27</v>
@@ -3559,7 +3867,7 @@
       <c r="N71" s="23"/>
     </row>
     <row r="72" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B72" s="25"/>
+      <c r="B72" s="36"/>
       <c r="D72" s="6"/>
       <c r="E72" s="23" t="s">
         <v>29</v>
@@ -3569,7 +3877,7 @@
       </c>
       <c r="G72" s="23"/>
       <c r="H72" s="23"/>
-      <c r="I72" s="26"/>
+      <c r="I72" s="37"/>
       <c r="J72" s="23"/>
       <c r="K72" s="23"/>
       <c r="L72" s="23" t="s">
@@ -3581,7 +3889,7 @@
       <c r="N72" s="23"/>
     </row>
     <row r="73" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B73" s="25"/>
+      <c r="B73" s="36"/>
       <c r="D73" s="6"/>
       <c r="E73" s="23" t="s">
         <v>31</v>
@@ -3591,7 +3899,7 @@
       </c>
       <c r="G73" s="23"/>
       <c r="H73" s="23"/>
-      <c r="I73" s="26"/>
+      <c r="I73" s="37"/>
       <c r="J73" s="23"/>
       <c r="K73" s="23"/>
       <c r="L73" s="23" t="s">
@@ -3603,7 +3911,7 @@
       <c r="N73" s="23"/>
     </row>
     <row r="74" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B74" s="25"/>
+      <c r="B74" s="36"/>
       <c r="D74" s="6"/>
       <c r="E74" s="23" t="s">
         <v>32</v>
@@ -3613,7 +3921,7 @@
       </c>
       <c r="G74" s="23"/>
       <c r="H74" s="23"/>
-      <c r="I74" s="26"/>
+      <c r="I74" s="37"/>
       <c r="J74" s="23"/>
       <c r="K74" s="23"/>
       <c r="L74" s="23" t="s">
@@ -3625,29 +3933,29 @@
       <c r="N74" s="23"/>
     </row>
     <row r="75" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B75" s="25"/>
+      <c r="B75" s="36"/>
       <c r="D75" s="6"/>
       <c r="E75" s="23" t="s">
         <v>34</v>
       </c>
       <c r="F75" s="23" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G75" s="23"/>
       <c r="H75" s="23"/>
-      <c r="I75" s="26"/>
+      <c r="I75" s="37"/>
       <c r="J75" s="23"/>
       <c r="K75" s="23"/>
       <c r="L75" s="23" t="s">
         <v>34</v>
       </c>
       <c r="M75" s="23" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="N75" s="23"/>
     </row>
     <row r="76" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B76" s="25"/>
+      <c r="B76" s="36"/>
       <c r="D76" s="6"/>
       <c r="E76" s="23" t="s">
         <v>123</v>
@@ -3655,7 +3963,7 @@
       <c r="F76" s="23"/>
       <c r="G76" s="23"/>
       <c r="H76" s="23"/>
-      <c r="I76" s="26"/>
+      <c r="I76" s="37"/>
       <c r="J76" s="23"/>
       <c r="K76" s="23"/>
       <c r="L76" s="23" t="s">
@@ -3665,7 +3973,7 @@
       <c r="N76" s="23"/>
     </row>
     <row r="77" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B77" s="25"/>
+      <c r="B77" s="36"/>
       <c r="D77" s="6"/>
       <c r="E77" s="23"/>
       <c r="F77" s="23" t="s">
@@ -3675,7 +3983,7 @@
         <v>130</v>
       </c>
       <c r="H77" s="23"/>
-      <c r="I77" s="26"/>
+      <c r="I77" s="37"/>
       <c r="J77" s="23"/>
       <c r="K77" s="23"/>
       <c r="L77" s="23"/>
@@ -3687,12 +3995,12 @@
       </c>
     </row>
     <row r="78" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B78" s="25"/>
+      <c r="B78" s="36"/>
       <c r="E78" s="23"/>
       <c r="F78" s="23"/>
       <c r="G78" s="23"/>
       <c r="H78" s="23"/>
-      <c r="I78" s="26"/>
+      <c r="I78" s="37"/>
       <c r="J78" s="23"/>
       <c r="K78" s="23"/>
       <c r="L78" s="23"/>
@@ -3700,7 +4008,7 @@
       <c r="N78" s="23"/>
     </row>
     <row r="79" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B79" s="25"/>
+      <c r="B79" s="36"/>
       <c r="C79" s="1" t="s">
         <v>39</v>
       </c>
@@ -3715,9 +4023,9 @@
       </c>
       <c r="G79" s="23"/>
       <c r="H79" s="23"/>
-      <c r="I79" s="26"/>
+      <c r="I79" s="37"/>
       <c r="J79" s="23" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K79" s="23" t="s">
         <v>134</v>
@@ -3731,7 +4039,7 @@
       <c r="N79" s="23"/>
     </row>
     <row r="80" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B80" s="25"/>
+      <c r="B80" s="36"/>
       <c r="D80" s="1" t="s">
         <v>129</v>
       </c>
@@ -3743,7 +4051,7 @@
       </c>
       <c r="G80" s="23"/>
       <c r="H80" s="23"/>
-      <c r="I80" s="26"/>
+      <c r="I80" s="37"/>
       <c r="J80" s="23"/>
       <c r="K80" s="23" t="s">
         <v>135</v>
@@ -3757,7 +4065,7 @@
       <c r="N80" s="23"/>
     </row>
     <row r="81" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B81" s="25"/>
+      <c r="B81" s="36"/>
       <c r="D81" s="6"/>
       <c r="E81" s="23" t="s">
         <v>29</v>
@@ -3767,7 +4075,7 @@
       </c>
       <c r="G81" s="23"/>
       <c r="H81" s="23"/>
-      <c r="I81" s="26"/>
+      <c r="I81" s="37"/>
       <c r="J81" s="23"/>
       <c r="K81" s="23"/>
       <c r="L81" s="23" t="s">
@@ -3779,7 +4087,7 @@
       <c r="N81" s="23"/>
     </row>
     <row r="82" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B82" s="25"/>
+      <c r="B82" s="36"/>
       <c r="D82" s="6"/>
       <c r="E82" s="23" t="s">
         <v>31</v>
@@ -3789,7 +4097,7 @@
       </c>
       <c r="G82" s="23"/>
       <c r="H82" s="23"/>
-      <c r="I82" s="26"/>
+      <c r="I82" s="37"/>
       <c r="J82" s="23"/>
       <c r="K82" s="23"/>
       <c r="L82" s="23" t="s">
@@ -3801,7 +4109,7 @@
       <c r="N82" s="23"/>
     </row>
     <row r="83" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B83" s="25"/>
+      <c r="B83" s="36"/>
       <c r="D83" s="6"/>
       <c r="E83" s="23" t="s">
         <v>32</v>
@@ -3811,7 +4119,7 @@
       </c>
       <c r="G83" s="23"/>
       <c r="H83" s="23"/>
-      <c r="I83" s="26"/>
+      <c r="I83" s="37"/>
       <c r="J83" s="23"/>
       <c r="K83" s="23"/>
       <c r="L83" s="23" t="s">
@@ -3823,29 +4131,29 @@
       <c r="N83" s="23"/>
     </row>
     <row r="84" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B84" s="25"/>
+      <c r="B84" s="36"/>
       <c r="D84" s="6"/>
       <c r="E84" s="23" t="s">
         <v>34</v>
       </c>
       <c r="F84" s="23" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G84" s="23"/>
       <c r="H84" s="23"/>
-      <c r="I84" s="26"/>
+      <c r="I84" s="37"/>
       <c r="J84" s="23"/>
       <c r="K84" s="23"/>
       <c r="L84" s="23" t="s">
         <v>34</v>
       </c>
       <c r="M84" s="23" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N84" s="23"/>
     </row>
     <row r="85" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B85" s="25"/>
+      <c r="B85" s="36"/>
       <c r="D85" s="6"/>
       <c r="E85" s="23" t="s">
         <v>122</v>
@@ -3853,7 +4161,7 @@
       <c r="F85" s="23"/>
       <c r="G85" s="23"/>
       <c r="H85" s="23"/>
-      <c r="I85" s="26"/>
+      <c r="I85" s="37"/>
       <c r="J85" s="23"/>
       <c r="K85" s="23"/>
       <c r="L85" s="23" t="s">
@@ -3863,7 +4171,7 @@
       <c r="N85" s="23"/>
     </row>
     <row r="86" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B86" s="25"/>
+      <c r="B86" s="36"/>
       <c r="D86" s="6"/>
       <c r="E86" s="23"/>
       <c r="F86" s="23" t="s">
@@ -3873,7 +4181,7 @@
         <v>126</v>
       </c>
       <c r="H86" s="23"/>
-      <c r="I86" s="26"/>
+      <c r="I86" s="37"/>
       <c r="J86" s="23"/>
       <c r="K86" s="23"/>
       <c r="L86" s="23"/>
@@ -4097,22 +4405,22 @@
     </row>
     <row r="113" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D113" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="114" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E114" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="115" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E115" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="116" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E116" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -4130,8 +4438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -4141,7 +4449,9 @@
     <col min="3" max="3" width="23.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.375" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="10" width="8.875" style="1"/>
+    <col min="6" max="8" width="8.875" style="1"/>
+    <col min="9" max="9" width="27.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="50.25" style="1" customWidth="1"/>
     <col min="11" max="11" width="15.375" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="8.875" style="1"/>
   </cols>
@@ -4185,110 +4495,130 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A2" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="29"/>
+      <c r="B2" s="40"/>
       <c r="C2" s="13" t="s">
         <v>81</v>
       </c>
       <c r="D2" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="38" t="s">
         <v>105</v>
       </c>
       <c r="F2" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="G2" s="34"/>
+      <c r="G2" s="26"/>
+      <c r="I2" s="30" t="s">
+        <v>209</v>
+      </c>
+      <c r="J2" s="34" t="s">
+        <v>210</v>
+      </c>
       <c r="K2" s="21" t="s">
         <v>110</v>
       </c>
       <c r="M2" s="12"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:16" ht="33" x14ac:dyDescent="0.15">
       <c r="A3" s="12"/>
-      <c r="B3" s="29"/>
+      <c r="B3" s="40"/>
       <c r="C3" s="13" t="s">
         <v>83</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="E3" s="27"/>
+      <c r="E3" s="38"/>
       <c r="F3" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="G3" s="34" t="s">
+      <c r="G3" s="26" t="s">
         <v>131</v>
       </c>
+      <c r="I3" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="J3" s="30"/>
       <c r="K3" s="21" t="s">
         <v>111</v>
       </c>
       <c r="M3" s="12"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" ht="33" x14ac:dyDescent="0.15">
       <c r="A4" s="12"/>
-      <c r="B4" s="29"/>
+      <c r="B4" s="40"/>
       <c r="C4" s="18" t="s">
         <v>86</v>
       </c>
       <c r="D4" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="E4" s="27"/>
+      <c r="E4" s="38"/>
       <c r="F4" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="G4" s="34"/>
+      <c r="G4" s="26"/>
+      <c r="I4" s="30" t="s">
+        <v>212</v>
+      </c>
+      <c r="J4" s="30"/>
       <c r="K4" s="21" t="s">
         <v>112</v>
       </c>
       <c r="M4" s="12"/>
-      <c r="O4" s="34"/>
+      <c r="O4" s="26"/>
       <c r="P4" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="30"/>
-      <c r="B5" s="29"/>
-      <c r="C5" s="31" t="s">
+      <c r="A5" s="41"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="42" t="s">
         <v>94</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="D5" s="39" t="s">
         <v>133</v>
       </c>
-      <c r="E5" s="27"/>
+      <c r="E5" s="38"/>
       <c r="F5" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="G5" s="34"/>
+      <c r="G5" s="26"/>
       <c r="H5" s="6"/>
-      <c r="J5" s="12"/>
+      <c r="I5" s="30" t="s">
+        <v>213</v>
+      </c>
+      <c r="J5" s="35"/>
       <c r="K5" s="21" t="s">
         <v>113</v>
       </c>
       <c r="L5" s="12"/>
       <c r="M5" s="12"/>
-      <c r="O5" s="37"/>
+      <c r="O5" s="29"/>
       <c r="P5" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A6" s="30"/>
-      <c r="B6" s="29"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="27"/>
+        <v>178</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="33" x14ac:dyDescent="0.15">
+      <c r="A6" s="41"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="38"/>
       <c r="F6" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="G6" s="34"/>
-      <c r="J6" s="17"/>
+      <c r="G6" s="26"/>
+      <c r="I6" s="30" t="s">
+        <v>214</v>
+      </c>
+      <c r="J6" s="32"/>
       <c r="K6" s="21" t="s">
         <v>114</v>
       </c>
@@ -4296,31 +4626,33 @@
       <c r="M6" s="17"/>
       <c r="O6" s="19"/>
       <c r="P6" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A7" s="30"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="27"/>
+      <c r="A7" s="41"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="38"/>
       <c r="F7" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="G7" s="34"/>
+      <c r="G7" s="26"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
       <c r="K7" s="21" t="s">
         <v>115</v>
       </c>
       <c r="M7" s="12"/>
     </row>
-    <row r="8" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16" ht="108" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="12"/>
-      <c r="B8" s="29"/>
-      <c r="C8" s="31" t="s">
+      <c r="B8" s="40"/>
+      <c r="C8" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="D8" s="28" t="s">
+      <c r="D8" s="39" t="s">
         <v>93</v>
       </c>
       <c r="E8" s="2" t="s">
@@ -4329,50 +4661,56 @@
       <c r="F8" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="G8" s="36"/>
+      <c r="G8" s="28"/>
       <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
+      <c r="I8" s="35" t="s">
+        <v>215</v>
+      </c>
+      <c r="J8" s="35"/>
       <c r="K8" s="12" t="s">
         <v>95</v>
       </c>
       <c r="L8" s="12"/>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A9" s="12"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="28"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="39"/>
       <c r="E9" s="5" t="s">
         <v>88</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G9" s="34"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
+      <c r="G9" s="26"/>
+      <c r="I9" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="J9" s="35"/>
       <c r="K9" s="12" t="s">
         <v>96</v>
       </c>
       <c r="L9" s="12"/>
       <c r="M9" s="12"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:16" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A10" s="12"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="28"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="39"/>
       <c r="E10" s="5" t="s">
         <v>89</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G10" s="34"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
+      <c r="G10" s="26"/>
+      <c r="I10" s="35" t="s">
+        <v>217</v>
+      </c>
+      <c r="J10" s="35"/>
       <c r="K10" s="12" t="s">
         <v>97</v>
       </c>
@@ -4381,8 +4719,8 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11" s="12"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="31"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="42"/>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
@@ -4395,7 +4733,7 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12" s="12"/>
-      <c r="C12" s="31"/>
+      <c r="C12" s="42"/>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
@@ -4408,7 +4746,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13" s="12"/>
-      <c r="C13" s="31"/>
+      <c r="C13" s="42"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
@@ -4440,8 +4778,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20:D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4451,6 +4789,8 @@
     <col min="3" max="3" width="23.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.625" customWidth="1"/>
     <col min="5" max="5" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.625" customWidth="1"/>
+    <col min="8" max="8" width="28.375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="22.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4497,21 +4837,23 @@
       <c r="A2" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="32"/>
+      <c r="B2" s="43"/>
       <c r="C2" s="13" t="s">
         <v>81</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="E2" s="27" t="s">
+        <v>180</v>
+      </c>
+      <c r="E2" s="38" t="s">
         <v>105</v>
       </c>
       <c r="F2" s="20" t="s">
         <v>103</v>
       </c>
       <c r="G2" s="19"/>
-      <c r="H2" s="1"/>
+      <c r="H2" s="30" t="s">
+        <v>197</v>
+      </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="21" t="s">
@@ -4520,19 +4862,19 @@
     </row>
     <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="12"/>
-      <c r="B3" s="32"/>
+      <c r="B3" s="43"/>
       <c r="C3" s="13" t="s">
         <v>83</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="E3" s="27"/>
+        <v>181</v>
+      </c>
+      <c r="E3" s="38"/>
       <c r="F3" s="20" t="s">
         <v>104</v>
       </c>
       <c r="G3" s="19"/>
-      <c r="H3" s="1"/>
+      <c r="H3" s="30"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="21" t="s">
@@ -4541,19 +4883,21 @@
     </row>
     <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A4" s="12"/>
-      <c r="B4" s="32"/>
+      <c r="B4" s="43"/>
       <c r="C4" s="15" t="s">
         <v>86</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>183</v>
-      </c>
-      <c r="E4" s="27"/>
+        <v>182</v>
+      </c>
+      <c r="E4" s="38"/>
       <c r="F4" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="G4" s="34"/>
-      <c r="H4" s="1"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="30" t="s">
+        <v>198</v>
+      </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="21" t="s">
@@ -4561,20 +4905,22 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="30"/>
-      <c r="B5" s="32"/>
-      <c r="C5" s="31" t="s">
+      <c r="A5" s="41"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="42" t="s">
         <v>94</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="D5" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="E5" s="27"/>
+      <c r="E5" s="38"/>
       <c r="F5" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="G5" s="34"/>
-      <c r="H5" s="6"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="30" t="s">
+        <v>199</v>
+      </c>
       <c r="I5" s="1"/>
       <c r="J5" s="12"/>
       <c r="K5" s="21" t="s">
@@ -4584,16 +4930,18 @@
       <c r="M5" s="12"/>
     </row>
     <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="30"/>
-      <c r="B6" s="32"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="27"/>
+      <c r="A6" s="41"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="38"/>
       <c r="F6" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="G6" s="34"/>
-      <c r="H6" s="1"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="30" t="s">
+        <v>200</v>
+      </c>
       <c r="I6" s="1"/>
       <c r="J6" s="17"/>
       <c r="K6" s="21" t="s">
@@ -4602,17 +4950,19 @@
       <c r="L6" s="17"/>
       <c r="M6" s="17"/>
     </row>
-    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="30"/>
-      <c r="B7" s="32"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="27"/>
+    <row r="7" spans="1:13" ht="33" x14ac:dyDescent="0.15">
+      <c r="A7" s="41"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="38"/>
       <c r="F7" s="20" t="s">
         <v>109</v>
       </c>
       <c r="G7" s="19"/>
-      <c r="H7" s="1"/>
+      <c r="H7" s="31" t="s">
+        <v>201</v>
+      </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="21" t="s">
@@ -4623,11 +4973,11 @@
     </row>
     <row r="8" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="12"/>
-      <c r="B8" s="32"/>
-      <c r="C8" s="31" t="s">
+      <c r="B8" s="43"/>
+      <c r="C8" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="D8" s="28" t="s">
+      <c r="D8" s="39" t="s">
         <v>93</v>
       </c>
       <c r="E8" s="2" t="s">
@@ -4636,10 +4986,10 @@
       <c r="F8" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="36"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="32" t="s">
+        <v>202</v>
+      </c>
       <c r="K8" s="12" t="s">
         <v>162</v>
       </c>
@@ -4648,19 +4998,19 @@
     </row>
     <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A9" s="12"/>
-      <c r="B9" s="32"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="28"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="39"/>
       <c r="E9" s="5" t="s">
         <v>61</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="35"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="32" t="s">
+        <v>203</v>
+      </c>
       <c r="K9" s="12" t="s">
         <v>163</v>
       </c>
@@ -4669,13 +5019,13 @@
     </row>
     <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A10" s="12"/>
-      <c r="B10" s="32"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="28"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="39"/>
       <c r="E10" s="5"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
+      <c r="H10" s="6"/>
       <c r="I10" s="12"/>
       <c r="J10" s="12"/>
       <c r="K10" s="12"/>
@@ -4684,12 +5034,12 @@
     </row>
     <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="12"/>
-      <c r="B11" s="32"/>
+      <c r="B11" s="43"/>
       <c r="C11" s="22"/>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
+      <c r="H11" s="17"/>
       <c r="I11" s="12"/>
       <c r="J11" s="12"/>
       <c r="K11" s="12"/>
@@ -4702,7 +5052,7 @@
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
+      <c r="H12" s="17"/>
       <c r="I12" s="12"/>
       <c r="J12" s="12"/>
       <c r="K12" s="12"/>
@@ -4715,28 +5065,37 @@
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
+      <c r="H13" s="17"/>
       <c r="I13" s="12"/>
       <c r="J13" s="12"/>
       <c r="K13" s="12"/>
       <c r="L13" s="12"/>
       <c r="M13" s="12"/>
     </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="H14" s="33"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="H15" s="33"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="H16" s="33"/>
+    </row>
     <row r="17" spans="3:12" ht="16.5" x14ac:dyDescent="0.15">
       <c r="C17" s="13" t="s">
         <v>81</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="E17" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="E17" s="38" t="s">
         <v>105</v>
       </c>
       <c r="F17" s="20" t="s">
         <v>103</v>
       </c>
       <c r="G17" s="19"/>
-      <c r="H17" s="1"/>
+      <c r="H17" s="6"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="21" t="s">
@@ -4748,16 +5107,18 @@
         <v>83</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>185</v>
-      </c>
-      <c r="E18" s="27"/>
+        <v>184</v>
+      </c>
+      <c r="E18" s="38"/>
       <c r="F18" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="G18" s="33" t="s">
+      <c r="G18" s="25" t="s">
         <v>174</v>
       </c>
-      <c r="H18" s="1"/>
+      <c r="H18" s="6" t="s">
+        <v>204</v>
+      </c>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="21" t="s">
@@ -4769,14 +5130,16 @@
         <v>86</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="E19" s="27"/>
+        <v>185</v>
+      </c>
+      <c r="E19" s="38"/>
       <c r="F19" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="G19" s="34"/>
-      <c r="H19" s="1"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="6" t="s">
+        <v>205</v>
+      </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="21" t="s">
@@ -4784,18 +5147,20 @@
       </c>
     </row>
     <row r="20" spans="3:12" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="C20" s="31" t="s">
-        <v>191</v>
-      </c>
-      <c r="D20" s="28" t="s">
-        <v>175</v>
-      </c>
-      <c r="E20" s="27"/>
+      <c r="C20" s="42" t="s">
+        <v>190</v>
+      </c>
+      <c r="D20" s="39" t="s">
+        <v>219</v>
+      </c>
+      <c r="E20" s="38"/>
       <c r="F20" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="G20" s="34"/>
-      <c r="H20" s="6"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="6" t="s">
+        <v>206</v>
+      </c>
       <c r="I20" s="1"/>
       <c r="J20" s="12"/>
       <c r="K20" s="21" t="s">
@@ -4804,14 +5169,16 @@
       <c r="L20" s="12"/>
     </row>
     <row r="21" spans="3:12" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="C21" s="31"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="27"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="38"/>
       <c r="F21" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="G21" s="34"/>
-      <c r="H21" s="1"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="6" t="s">
+        <v>207</v>
+      </c>
       <c r="I21" s="1"/>
       <c r="J21" s="17"/>
       <c r="K21" s="21" t="s">
@@ -4820,16 +5187,18 @@
       <c r="L21" s="17"/>
     </row>
     <row r="22" spans="3:12" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="C22" s="31"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="27"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="38"/>
       <c r="F22" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="G22" s="25" t="s">
         <v>172</v>
       </c>
-      <c r="H22" s="1"/>
+      <c r="H22" s="6" t="s">
+        <v>208</v>
+      </c>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="21" t="s">
@@ -4838,10 +5207,10 @@
       <c r="L22" s="12"/>
     </row>
     <row r="23" spans="3:12" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="C23" s="31" t="s">
-        <v>192</v>
-      </c>
-      <c r="D23" s="28" t="s">
+      <c r="C23" s="42" t="s">
+        <v>191</v>
+      </c>
+      <c r="D23" s="39" t="s">
         <v>136</v>
       </c>
       <c r="E23" s="2" t="s">
@@ -4850,40 +5219,40 @@
       <c r="F23" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="17"/>
       <c r="I23" s="12"/>
-      <c r="J23" s="35"/>
       <c r="K23" s="12" t="s">
         <v>164</v>
       </c>
       <c r="L23" s="12"/>
     </row>
     <row r="24" spans="3:12" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="C24" s="31"/>
-      <c r="D24" s="28"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="39"/>
       <c r="E24" s="5" t="s">
         <v>161</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="17" t="s">
+        <v>218</v>
+      </c>
       <c r="I24" s="12"/>
-      <c r="J24" s="35"/>
       <c r="K24" s="12" t="s">
         <v>165</v>
       </c>
       <c r="L24" s="12"/>
     </row>
     <row r="25" spans="3:12" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="C25" s="31"/>
-      <c r="D25" s="28"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="39"/>
       <c r="E25" s="5"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
+      <c r="H25" s="6"/>
       <c r="I25" s="12"/>
       <c r="J25" s="12"/>
       <c r="K25" s="12"/>
@@ -4891,11 +5260,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B2:B11"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="C8:C10"/>
     <mergeCell ref="E2:E7"/>
     <mergeCell ref="E17:E22"/>
     <mergeCell ref="C20:C22"/>
@@ -4903,6 +5267,11 @@
     <mergeCell ref="C23:C25"/>
     <mergeCell ref="D23:D25"/>
     <mergeCell ref="D5:D7"/>
+    <mergeCell ref="B2:B11"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="C8:C10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/gd/玩法规划/金钱、经验试炼设计文档.xlsx
+++ b/gd/玩法规划/金钱、经验试炼设计文档.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1335" yWindow="1905" windowWidth="35475" windowHeight="16740" activeTab="2"/>
+    <workbookView xWindow="1335" yWindow="1905" windowWidth="35475" windowHeight="16740" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="逻辑设计" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="233">
   <si>
     <t>金钱、经验试炼</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -403,10 +403,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>新2（红法D）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>小丑 （蓝法D)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -674,15 +670,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>状态一转换状态二的动作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>chuchang2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>同状态1（帆爷看下行不行）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -773,54 +761,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>可以复用</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>复用 182- 210</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>双手放下，歪斜身体 摇头晃脑</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>可复用</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>可复用 后面吼叫变成胜利，爬出来后就直接抖一下待机就行</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>复用 400-430</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>复用500-540 转圈时候打开双臂</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>复用状态1动作，增加内部黑人死亡动作</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>复用550-600</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>挺出内在，内在的黑人歪斜低头摇晃</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>抖动身体</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>复用15-40</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>身体微微漂浮着左右摇晃，尾巴轻盈的漂浮上下动，双手微微抬起做准备状。</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -857,11 +797,128 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
+    <t>躯壳，挂接点名：wp_shell</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以复用
+如图，双手张开 呼吸</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>身上石头 散落在地</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>复用 182- 210
+双手 打开，仰天 笑</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>双手放下，歪斜身体 摇头晃脑</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>可复用
+从金币堆里面 爬出来</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>复用 400-430
+举起双臂，45帧 用力砸地</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>复用500-540 转圈时候打开双臂
+双臂 胸前蓄力 旋转，45帧，快速旋转用力打开双手</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>身上的石头 漂浮起来</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>同状态1（帆爷看下行不行）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石头像 身体聚集，然后爆开 散落在地上</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>复用550-600
+双手 向上举起，欢呼，漂浮的石头 无规则的转动</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>挺出内在，内在的黑人歪斜低头摇晃</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态一转换状态二的动作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复用15-40</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓄力时，飞石向身体靠近 旋转，45帧 小人向前打出，飞石 爆开</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>216-305</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>小人举起双手蓄力，飞石漫天飞舞，45帧 小人用力 甩开双手， 飞石顿时 停住</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t>440蓄力接发出690-700</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>躯壳，挂接点名：wp_shell</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>赛布勒斯（红法D）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尾巴先是合着成一根，然后象开屏似得缓慢打开，同时双手，也缓慢的跟着尾巴打开的速度打开。</t>
+  </si>
+  <si>
+    <t>完成/完全服用</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成/修改服用</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>重新制作</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成/完全服用</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成/修改服用</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成/修改服用</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>重新制作</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>抖动身体</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>可复用，抖动身体</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -869,7 +926,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -945,6 +1002,7 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -954,8 +1012,16 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -998,6 +1064,11 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1008,12 +1079,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1122,6 +1196,30 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1146,9 +1244,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="好" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1993,7 +2095,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="447675" y="1009650"/>
-          <a:ext cx="3013996" cy="1473683"/>
+          <a:ext cx="3013996" cy="1264133"/>
           <a:chOff x="10020299" y="5553075"/>
           <a:chExt cx="3226145" cy="3038475"/>
         </a:xfrm>
@@ -2285,15 +2387,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>3467100</xdr:colOff>
+      <xdr:colOff>3419475</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>292286</xdr:rowOff>
+      <xdr:rowOff>416111</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2310,7 +2412,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13058775" y="5972175"/>
+          <a:off x="15363825" y="2743200"/>
           <a:ext cx="2857500" cy="368486"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2330,8 +2432,8 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>2228850</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>1810806</xdr:rowOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>1056</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2407,7 +2509,7 @@
       <xdr:col>9</xdr:col>
       <xdr:colOff>3587563</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>1482209</xdr:rowOff>
+      <xdr:rowOff>624959</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2459,7 +2561,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="869951" y="3616326"/>
+          <a:off x="869951" y="3406776"/>
           <a:ext cx="3930650" cy="4040750"/>
           <a:chOff x="5699126" y="4711701"/>
           <a:chExt cx="3930650" cy="3697850"/>
@@ -2732,7 +2834,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="800100" y="847725"/>
-          <a:ext cx="4032250" cy="2667000"/>
+          <a:ext cx="4032250" cy="2457450"/>
           <a:chOff x="2730500" y="704850"/>
           <a:chExt cx="4311167" cy="2971800"/>
         </a:xfrm>
@@ -3237,8 +3339,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P116"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="E89" sqref="E89"/>
+    <sheetView topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="J97" sqref="J97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -3294,13 +3396,13 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C9" s="1" t="s">
-        <v>99</v>
+        <v>222</v>
       </c>
       <c r="D9" s="1">
         <v>4</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F9" s="1">
         <v>2</v>
@@ -3348,7 +3450,7 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C19" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D19" s="1">
         <v>4</v>
@@ -3385,7 +3487,7 @@
         <v>15</v>
       </c>
       <c r="P25" s="19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.15">
@@ -3417,7 +3519,7 @@
     <row r="30" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B30" s="2"/>
       <c r="C30" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>38</v>
@@ -3432,7 +3534,7 @@
     <row r="31" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B31" s="2"/>
       <c r="D31" s="23" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E31" s="23" t="s">
         <v>27</v>
@@ -3503,7 +3605,7 @@
         <v>41</v>
       </c>
       <c r="G37" s="23" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.15">
@@ -3533,7 +3635,7 @@
     <row r="40" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B40" s="2"/>
       <c r="D40" s="23" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E40" s="23" t="s">
         <v>27</v>
@@ -3583,7 +3685,7 @@
         <v>34</v>
       </c>
       <c r="F44" s="23" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G44" s="23"/>
     </row>
@@ -3591,7 +3693,7 @@
       <c r="B45" s="5"/>
       <c r="D45" s="23"/>
       <c r="E45" s="23" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F45" s="23"/>
       <c r="G45" s="23"/>
@@ -3601,17 +3703,17 @@
       <c r="D46" s="23"/>
       <c r="E46" s="23"/>
       <c r="F46" s="23" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G46" s="23" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B47" s="5"/>
       <c r="D47" s="23"/>
       <c r="E47" s="23" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F47" s="23"/>
       <c r="G47" s="23"/>
@@ -3621,10 +3723,10 @@
       <c r="D48" s="23"/>
       <c r="E48" s="23"/>
       <c r="F48" s="23" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G48" s="23" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.15">
@@ -3784,7 +3886,7 @@
         <v>21</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="67" spans="2:14" x14ac:dyDescent="0.15">
@@ -3806,8 +3908,8 @@
       <c r="C69" s="6"/>
     </row>
     <row r="70" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B70" s="36" t="s">
-        <v>117</v>
+      <c r="B70" s="44" t="s">
+        <v>116</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>37</v>
@@ -3823,14 +3925,14 @@
       </c>
       <c r="G70" s="23"/>
       <c r="H70" s="23"/>
-      <c r="I70" s="37" t="s">
-        <v>118</v>
+      <c r="I70" s="45" t="s">
+        <v>117</v>
       </c>
       <c r="J70" s="23" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="K70" s="23" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L70" s="23" t="s">
         <v>25</v>
@@ -3841,9 +3943,9 @@
       <c r="N70" s="23"/>
     </row>
     <row r="71" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B71" s="36"/>
+      <c r="B71" s="44"/>
       <c r="D71" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E71" s="23" t="s">
         <v>27</v>
@@ -3853,10 +3955,10 @@
       </c>
       <c r="G71" s="23"/>
       <c r="H71" s="23"/>
-      <c r="I71" s="37"/>
+      <c r="I71" s="45"/>
       <c r="J71" s="23"/>
       <c r="K71" s="23" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="L71" s="23" t="s">
         <v>27</v>
@@ -3867,7 +3969,7 @@
       <c r="N71" s="23"/>
     </row>
     <row r="72" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B72" s="36"/>
+      <c r="B72" s="44"/>
       <c r="D72" s="6"/>
       <c r="E72" s="23" t="s">
         <v>29</v>
@@ -3877,7 +3979,7 @@
       </c>
       <c r="G72" s="23"/>
       <c r="H72" s="23"/>
-      <c r="I72" s="37"/>
+      <c r="I72" s="45"/>
       <c r="J72" s="23"/>
       <c r="K72" s="23"/>
       <c r="L72" s="23" t="s">
@@ -3889,7 +3991,7 @@
       <c r="N72" s="23"/>
     </row>
     <row r="73" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B73" s="36"/>
+      <c r="B73" s="44"/>
       <c r="D73" s="6"/>
       <c r="E73" s="23" t="s">
         <v>31</v>
@@ -3899,7 +4001,7 @@
       </c>
       <c r="G73" s="23"/>
       <c r="H73" s="23"/>
-      <c r="I73" s="37"/>
+      <c r="I73" s="45"/>
       <c r="J73" s="23"/>
       <c r="K73" s="23"/>
       <c r="L73" s="23" t="s">
@@ -3911,7 +4013,7 @@
       <c r="N73" s="23"/>
     </row>
     <row r="74" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B74" s="36"/>
+      <c r="B74" s="44"/>
       <c r="D74" s="6"/>
       <c r="E74" s="23" t="s">
         <v>32</v>
@@ -3921,7 +4023,7 @@
       </c>
       <c r="G74" s="23"/>
       <c r="H74" s="23"/>
-      <c r="I74" s="37"/>
+      <c r="I74" s="45"/>
       <c r="J74" s="23"/>
       <c r="K74" s="23"/>
       <c r="L74" s="23" t="s">
@@ -3933,57 +4035,57 @@
       <c r="N74" s="23"/>
     </row>
     <row r="75" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B75" s="36"/>
+      <c r="B75" s="44"/>
       <c r="D75" s="6"/>
       <c r="E75" s="23" t="s">
         <v>34</v>
       </c>
       <c r="F75" s="23" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G75" s="23"/>
       <c r="H75" s="23"/>
-      <c r="I75" s="37"/>
+      <c r="I75" s="45"/>
       <c r="J75" s="23"/>
       <c r="K75" s="23"/>
       <c r="L75" s="23" t="s">
         <v>34</v>
       </c>
       <c r="M75" s="23" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="N75" s="23"/>
     </row>
     <row r="76" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B76" s="36"/>
+      <c r="B76" s="44"/>
       <c r="D76" s="6"/>
       <c r="E76" s="23" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F76" s="23"/>
       <c r="G76" s="23"/>
       <c r="H76" s="23"/>
-      <c r="I76" s="37"/>
+      <c r="I76" s="45"/>
       <c r="J76" s="23"/>
       <c r="K76" s="23"/>
       <c r="L76" s="23" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M76" s="23"/>
       <c r="N76" s="23"/>
     </row>
     <row r="77" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B77" s="36"/>
+      <c r="B77" s="44"/>
       <c r="D77" s="6"/>
       <c r="E77" s="23"/>
       <c r="F77" s="23" t="s">
         <v>42</v>
       </c>
       <c r="G77" s="23" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H77" s="23"/>
-      <c r="I77" s="37"/>
+      <c r="I77" s="45"/>
       <c r="J77" s="23"/>
       <c r="K77" s="23"/>
       <c r="L77" s="23"/>
@@ -3991,16 +4093,16 @@
         <v>42</v>
       </c>
       <c r="N77" s="23" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="78" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B78" s="36"/>
+      <c r="B78" s="44"/>
       <c r="E78" s="23"/>
       <c r="F78" s="23"/>
       <c r="G78" s="23"/>
       <c r="H78" s="23"/>
-      <c r="I78" s="37"/>
+      <c r="I78" s="45"/>
       <c r="J78" s="23"/>
       <c r="K78" s="23"/>
       <c r="L78" s="23"/>
@@ -4008,12 +4110,12 @@
       <c r="N78" s="23"/>
     </row>
     <row r="79" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B79" s="36"/>
+      <c r="B79" s="44"/>
       <c r="C79" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E79" s="23" t="s">
         <v>25</v>
@@ -4023,12 +4125,12 @@
       </c>
       <c r="G79" s="23"/>
       <c r="H79" s="23"/>
-      <c r="I79" s="37"/>
+      <c r="I79" s="45"/>
       <c r="J79" s="23" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="K79" s="23" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L79" s="23" t="s">
         <v>25</v>
@@ -4039,9 +4141,9 @@
       <c r="N79" s="23"/>
     </row>
     <row r="80" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B80" s="36"/>
+      <c r="B80" s="44"/>
       <c r="D80" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E80" s="23" t="s">
         <v>27</v>
@@ -4051,10 +4153,10 @@
       </c>
       <c r="G80" s="23"/>
       <c r="H80" s="23"/>
-      <c r="I80" s="37"/>
+      <c r="I80" s="45"/>
       <c r="J80" s="23"/>
       <c r="K80" s="23" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L80" s="23" t="s">
         <v>27</v>
@@ -4065,7 +4167,7 @@
       <c r="N80" s="23"/>
     </row>
     <row r="81" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B81" s="36"/>
+      <c r="B81" s="44"/>
       <c r="D81" s="6"/>
       <c r="E81" s="23" t="s">
         <v>29</v>
@@ -4075,7 +4177,7 @@
       </c>
       <c r="G81" s="23"/>
       <c r="H81" s="23"/>
-      <c r="I81" s="37"/>
+      <c r="I81" s="45"/>
       <c r="J81" s="23"/>
       <c r="K81" s="23"/>
       <c r="L81" s="23" t="s">
@@ -4087,7 +4189,7 @@
       <c r="N81" s="23"/>
     </row>
     <row r="82" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B82" s="36"/>
+      <c r="B82" s="44"/>
       <c r="D82" s="6"/>
       <c r="E82" s="23" t="s">
         <v>31</v>
@@ -4097,7 +4199,7 @@
       </c>
       <c r="G82" s="23"/>
       <c r="H82" s="23"/>
-      <c r="I82" s="37"/>
+      <c r="I82" s="45"/>
       <c r="J82" s="23"/>
       <c r="K82" s="23"/>
       <c r="L82" s="23" t="s">
@@ -4109,7 +4211,7 @@
       <c r="N82" s="23"/>
     </row>
     <row r="83" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B83" s="36"/>
+      <c r="B83" s="44"/>
       <c r="D83" s="6"/>
       <c r="E83" s="23" t="s">
         <v>32</v>
@@ -4119,7 +4221,7 @@
       </c>
       <c r="G83" s="23"/>
       <c r="H83" s="23"/>
-      <c r="I83" s="37"/>
+      <c r="I83" s="45"/>
       <c r="J83" s="23"/>
       <c r="K83" s="23"/>
       <c r="L83" s="23" t="s">
@@ -4131,70 +4233,70 @@
       <c r="N83" s="23"/>
     </row>
     <row r="84" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B84" s="36"/>
+      <c r="B84" s="44"/>
       <c r="D84" s="6"/>
       <c r="E84" s="23" t="s">
         <v>34</v>
       </c>
       <c r="F84" s="23" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G84" s="23"/>
       <c r="H84" s="23"/>
-      <c r="I84" s="37"/>
+      <c r="I84" s="45"/>
       <c r="J84" s="23"/>
       <c r="K84" s="23"/>
       <c r="L84" s="23" t="s">
         <v>34</v>
       </c>
       <c r="M84" s="23" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="N84" s="23"/>
     </row>
     <row r="85" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B85" s="36"/>
+      <c r="B85" s="44"/>
       <c r="D85" s="6"/>
       <c r="E85" s="23" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F85" s="23"/>
       <c r="G85" s="23"/>
       <c r="H85" s="23"/>
-      <c r="I85" s="37"/>
+      <c r="I85" s="45"/>
       <c r="J85" s="23"/>
       <c r="K85" s="23"/>
       <c r="L85" s="23" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M85" s="23"/>
       <c r="N85" s="23"/>
     </row>
     <row r="86" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B86" s="36"/>
+      <c r="B86" s="44"/>
       <c r="D86" s="6"/>
       <c r="E86" s="23"/>
       <c r="F86" s="23" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G86" s="23" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H86" s="23"/>
-      <c r="I86" s="37"/>
+      <c r="I86" s="45"/>
       <c r="J86" s="23"/>
       <c r="K86" s="23"/>
       <c r="L86" s="23"/>
       <c r="M86" s="23" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N86" s="23" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="87" spans="2:14" x14ac:dyDescent="0.15">
       <c r="E87" s="23" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F87" s="23"/>
       <c r="G87" s="23"/>
@@ -4203,7 +4305,7 @@
       <c r="J87" s="23"/>
       <c r="K87" s="23"/>
       <c r="L87" s="23" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M87" s="23"/>
       <c r="N87" s="23"/>
@@ -4211,10 +4313,10 @@
     <row r="88" spans="2:14" x14ac:dyDescent="0.15">
       <c r="E88" s="23"/>
       <c r="F88" s="23" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G88" s="23" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H88" s="23"/>
       <c r="I88" s="23"/>
@@ -4222,10 +4324,10 @@
       <c r="K88" s="23"/>
       <c r="L88" s="23"/>
       <c r="M88" s="23" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N88" s="23" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="89" spans="2:14" x14ac:dyDescent="0.15">
@@ -4273,57 +4375,57 @@
         <v>59</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F94" s="6"/>
       <c r="K94" s="12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="95" spans="2:14" x14ac:dyDescent="0.15">
       <c r="C95" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>64</v>
       </c>
       <c r="F95" s="6"/>
       <c r="K95" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="96" spans="2:14" x14ac:dyDescent="0.15">
       <c r="C96" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K96" s="12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="97" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C97" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>62</v>
       </c>
       <c r="K97" s="12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="98" spans="3:11" x14ac:dyDescent="0.15">
@@ -4348,7 +4450,7 @@
     </row>
     <row r="101" spans="3:11" x14ac:dyDescent="0.15">
       <c r="D101" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E101" s="6"/>
       <c r="F101" s="6"/>
@@ -4362,7 +4464,7 @@
     </row>
     <row r="103" spans="3:11" x14ac:dyDescent="0.15">
       <c r="D103" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E103" s="6"/>
       <c r="F103" s="6"/>
@@ -4380,17 +4482,17 @@
     </row>
     <row r="106" spans="3:11" x14ac:dyDescent="0.15">
       <c r="D106" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="107" spans="3:11" x14ac:dyDescent="0.15">
       <c r="D107" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="108" spans="3:11" x14ac:dyDescent="0.15">
       <c r="D108" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="111" spans="3:11" x14ac:dyDescent="0.15">
@@ -4405,22 +4507,22 @@
     </row>
     <row r="113" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D113" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="114" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E114" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="115" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E115" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="116" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E116" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -4438,8 +4540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P13"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19:I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -4450,7 +4552,7 @@
     <col min="4" max="4" width="20.375" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="8.875" style="1"/>
-    <col min="9" max="9" width="27.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="58.75" style="1" customWidth="1"/>
     <col min="10" max="10" width="50.25" style="1" customWidth="1"/>
     <col min="11" max="11" width="15.375" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="8.875" style="1"/>
@@ -4499,160 +4601,162 @@
       <c r="A2" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="40"/>
+      <c r="B2" s="48"/>
       <c r="C2" s="13" t="s">
         <v>81</v>
       </c>
       <c r="D2" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="E2" s="38" t="s">
-        <v>105</v>
+      <c r="E2" s="46" t="s">
+        <v>104</v>
       </c>
       <c r="F2" s="20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G2" s="26"/>
       <c r="I2" s="30" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="J2" s="34" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="K2" s="21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M2" s="12"/>
     </row>
     <row r="3" spans="1:16" ht="33" x14ac:dyDescent="0.15">
       <c r="A3" s="12"/>
-      <c r="B3" s="40"/>
+      <c r="B3" s="48"/>
       <c r="C3" s="13" t="s">
         <v>83</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="E3" s="38"/>
+      <c r="E3" s="46"/>
       <c r="F3" s="20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G3" s="26" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I3" s="30" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="J3" s="30"/>
       <c r="K3" s="21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M3" s="12"/>
     </row>
     <row r="4" spans="1:16" ht="33" x14ac:dyDescent="0.15">
       <c r="A4" s="12"/>
-      <c r="B4" s="40"/>
+      <c r="B4" s="48"/>
       <c r="C4" s="18" t="s">
         <v>86</v>
       </c>
       <c r="D4" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="E4" s="38"/>
+      <c r="E4" s="46"/>
       <c r="F4" s="20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G4" s="26"/>
       <c r="I4" s="30" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="J4" s="30"/>
       <c r="K4" s="21" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M4" s="12"/>
       <c r="O4" s="26"/>
       <c r="P4" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="41"/>
-      <c r="B5" s="40"/>
-      <c r="C5" s="42" t="s">
+      <c r="A5" s="49"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="50" t="s">
         <v>94</v>
       </c>
-      <c r="D5" s="39" t="s">
-        <v>133</v>
-      </c>
-      <c r="E5" s="38"/>
+      <c r="D5" s="47" t="s">
+        <v>132</v>
+      </c>
+      <c r="E5" s="46"/>
       <c r="F5" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G5" s="26"/>
       <c r="H5" s="6"/>
       <c r="I5" s="30" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="J5" s="35"/>
       <c r="K5" s="21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L5" s="12"/>
       <c r="M5" s="12"/>
       <c r="O5" s="29"/>
       <c r="P5" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="33" x14ac:dyDescent="0.15">
-      <c r="A6" s="41"/>
-      <c r="B6" s="40"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="38"/>
+        <v>175</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A6" s="49"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="46"/>
       <c r="F6" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G6" s="26"/>
       <c r="I6" s="30" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="J6" s="32"/>
       <c r="K6" s="21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L6" s="17"/>
       <c r="M6" s="17"/>
       <c r="O6" s="19"/>
       <c r="P6" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A7" s="41"/>
-      <c r="B7" s="40"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="38"/>
+        <v>176</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="33" x14ac:dyDescent="0.15">
+      <c r="A7" s="49"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="46"/>
       <c r="F7" s="20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G7" s="26"/>
-      <c r="I7" s="30"/>
+      <c r="I7" s="30" t="s">
+        <v>223</v>
+      </c>
       <c r="J7" s="30"/>
       <c r="K7" s="21" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M7" s="12"/>
     </row>
     <row r="8" spans="1:16" ht="108" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="12"/>
-      <c r="B8" s="40"/>
-      <c r="C8" s="42" t="s">
+      <c r="B8" s="48"/>
+      <c r="C8" s="50" t="s">
         <v>90</v>
       </c>
-      <c r="D8" s="39" t="s">
+      <c r="D8" s="47" t="s">
         <v>93</v>
       </c>
       <c r="E8" s="2" t="s">
@@ -4664,7 +4768,7 @@
       <c r="G8" s="28"/>
       <c r="H8" s="12"/>
       <c r="I8" s="35" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="J8" s="35"/>
       <c r="K8" s="12" t="s">
@@ -4675,9 +4779,9 @@
     </row>
     <row r="9" spans="1:16" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A9" s="12"/>
-      <c r="B9" s="40"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="39"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="47"/>
       <c r="E9" s="5" t="s">
         <v>88</v>
       </c>
@@ -4686,7 +4790,7 @@
       </c>
       <c r="G9" s="26"/>
       <c r="I9" s="35" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="J9" s="35"/>
       <c r="K9" s="12" t="s">
@@ -4697,9 +4801,9 @@
     </row>
     <row r="10" spans="1:16" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A10" s="12"/>
-      <c r="B10" s="40"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="39"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="47"/>
       <c r="E10" s="5" t="s">
         <v>89</v>
       </c>
@@ -4708,7 +4812,7 @@
       </c>
       <c r="G10" s="26"/>
       <c r="I10" s="35" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="J10" s="35"/>
       <c r="K10" s="12" t="s">
@@ -4719,8 +4823,8 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11" s="12"/>
-      <c r="B11" s="40"/>
-      <c r="C11" s="42"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="50"/>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
@@ -4733,7 +4837,7 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12" s="12"/>
-      <c r="C12" s="42"/>
+      <c r="C12" s="50"/>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
@@ -4746,7 +4850,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13" s="12"/>
-      <c r="C13" s="42"/>
+      <c r="C13" s="50"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
@@ -4776,10 +4880,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20:D22"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4789,12 +4893,14 @@
     <col min="3" max="3" width="23.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.625" customWidth="1"/>
     <col min="5" max="5" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.625" customWidth="1"/>
-    <col min="8" max="8" width="28.375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.875" customWidth="1"/>
+    <col min="8" max="8" width="17.625" customWidth="1"/>
+    <col min="9" max="9" width="28.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="77.75" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>69</v>
       </c>
@@ -4808,455 +4914,528 @@
       <c r="E1" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="10"/>
+      <c r="G1" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="H1" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="I1" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="J1" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="K1" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="L1" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="M1" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="N1" s="8" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A2" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="43"/>
+      <c r="B2" s="51"/>
       <c r="C2" s="13" t="s">
         <v>81</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>180</v>
-      </c>
-      <c r="E2" s="38" t="s">
-        <v>105</v>
-      </c>
-      <c r="F2" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="G2" s="19"/>
-      <c r="H2" s="30" t="s">
-        <v>197</v>
-      </c>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="21" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+        <v>177</v>
+      </c>
+      <c r="E2" s="46" t="s">
+        <v>104</v>
+      </c>
+      <c r="F2" s="52" t="s">
+        <v>224</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="H2" s="36"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="39" t="s">
+        <v>204</v>
+      </c>
+      <c r="K2" s="30"/>
+      <c r="L2" s="21" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="12"/>
-      <c r="B3" s="43"/>
+      <c r="B3" s="51"/>
       <c r="C3" s="13" t="s">
         <v>83</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="E3" s="38"/>
-      <c r="F3" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="G3" s="19"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="21" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+        <v>178</v>
+      </c>
+      <c r="E3" s="46"/>
+      <c r="F3" s="52" t="s">
+        <v>225</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="H3" s="36"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="39" t="s">
+        <v>205</v>
+      </c>
+      <c r="K3" s="30"/>
+      <c r="L3" s="21" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A4" s="12"/>
-      <c r="B4" s="43"/>
+      <c r="B4" s="51"/>
       <c r="C4" s="15" t="s">
         <v>86</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>182</v>
-      </c>
-      <c r="E4" s="38"/>
-      <c r="F4" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="E4" s="46"/>
+      <c r="F4" s="52" t="s">
+        <v>225</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="H4" s="36"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="39" t="s">
+        <v>206</v>
+      </c>
+      <c r="K4" s="30"/>
+      <c r="L4" s="21" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="49"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="50" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" s="47" t="s">
+        <v>92</v>
+      </c>
+      <c r="E5" s="46"/>
+      <c r="F5" s="52" t="s">
+        <v>226</v>
+      </c>
+      <c r="G5" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="G4" s="26"/>
-      <c r="H4" s="30" t="s">
-        <v>198</v>
-      </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="21" t="s">
+      <c r="H5" s="37"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="39" t="s">
+        <v>207</v>
+      </c>
+      <c r="K5" s="35"/>
+      <c r="L5" s="21" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="41"/>
-      <c r="B5" s="43"/>
-      <c r="C5" s="42" t="s">
-        <v>94</v>
-      </c>
-      <c r="D5" s="39" t="s">
-        <v>92</v>
-      </c>
-      <c r="E5" s="38"/>
-      <c r="F5" s="20" t="s">
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+    </row>
+    <row r="6" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A6" s="49"/>
+      <c r="B6" s="51"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="52" t="s">
+        <v>225</v>
+      </c>
+      <c r="G6" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="G5" s="26"/>
-      <c r="H5" s="30" t="s">
-        <v>199</v>
-      </c>
-      <c r="I5" s="1"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="21" t="s">
+      <c r="H6" s="36"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="39" t="s">
+        <v>232</v>
+      </c>
+      <c r="K6" s="32"/>
+      <c r="L6" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-    </row>
-    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="41"/>
-      <c r="B6" s="43"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="20" t="s">
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+    </row>
+    <row r="7" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A7" s="49"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="52" t="s">
+        <v>225</v>
+      </c>
+      <c r="G7" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="G6" s="26"/>
-      <c r="H6" s="30" t="s">
-        <v>200</v>
-      </c>
-      <c r="I6" s="1"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="21" t="s">
+      <c r="H7" s="36"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="42" t="s">
+        <v>208</v>
+      </c>
+      <c r="K7" s="30"/>
+      <c r="L7" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-    </row>
-    <row r="7" spans="1:13" ht="33" x14ac:dyDescent="0.15">
-      <c r="A7" s="41"/>
-      <c r="B7" s="43"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="G7" s="19"/>
-      <c r="H7" s="31" t="s">
-        <v>201</v>
-      </c>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="21" t="s">
-        <v>142</v>
-      </c>
-      <c r="L7" s="12"/>
       <c r="M7" s="12"/>
-    </row>
-    <row r="8" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N7" s="12"/>
+    </row>
+    <row r="8" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="12"/>
-      <c r="B8" s="43"/>
-      <c r="C8" s="42" t="s">
+      <c r="B8" s="51"/>
+      <c r="C8" s="50" t="s">
         <v>90</v>
       </c>
-      <c r="D8" s="39" t="s">
+      <c r="D8" s="47" t="s">
         <v>93</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="G8" s="28"/>
-      <c r="H8" s="32" t="s">
-        <v>202</v>
-      </c>
-      <c r="K8" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="L8" s="12"/>
+        <v>159</v>
+      </c>
+      <c r="F8" s="52" t="s">
+        <v>225</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="H8" s="38"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="43" t="s">
+        <v>209</v>
+      </c>
+      <c r="K8" s="30"/>
+      <c r="L8" s="12" t="s">
+        <v>161</v>
+      </c>
       <c r="M8" s="12"/>
-    </row>
-    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="N8" s="12"/>
+    </row>
+    <row r="9" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A9" s="12"/>
-      <c r="B9" s="43"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="39"/>
+      <c r="B9" s="51"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="47"/>
       <c r="E9" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="G9" s="27"/>
-      <c r="H9" s="32" t="s">
-        <v>203</v>
-      </c>
-      <c r="K9" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="L9" s="12"/>
+      <c r="F9" s="52" t="s">
+        <v>225</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="H9" s="36"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="43" t="s">
+        <v>210</v>
+      </c>
+      <c r="K9" s="30"/>
+      <c r="L9" s="12" t="s">
+        <v>162</v>
+      </c>
       <c r="M9" s="12"/>
-    </row>
-    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="N9" s="12"/>
+    </row>
+    <row r="10" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A10" s="12"/>
-      <c r="B10" s="43"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="39"/>
+      <c r="B10" s="51"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="47"/>
       <c r="E10" s="5"/>
-      <c r="F10" s="1"/>
+      <c r="F10" s="5"/>
       <c r="G10" s="1"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="43"/>
       <c r="K10" s="12"/>
       <c r="L10" s="12"/>
       <c r="M10" s="12"/>
-    </row>
-    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="N10" s="12"/>
+    </row>
+    <row r="11" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="12"/>
-      <c r="B11" s="43"/>
+      <c r="B11" s="51"/>
       <c r="C11" s="22"/>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="40"/>
       <c r="K11" s="12"/>
       <c r="L11" s="12"/>
       <c r="M11" s="12"/>
-    </row>
-    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="N11" s="12"/>
+    </row>
+    <row r="12" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A12" s="12"/>
       <c r="C12" s="22"/>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="40"/>
       <c r="K12" s="12"/>
       <c r="L12" s="12"/>
       <c r="M12" s="12"/>
-    </row>
-    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="N12" s="12"/>
+    </row>
+    <row r="13" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A13" s="12"/>
       <c r="C13" s="22"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="40"/>
       <c r="K13" s="12"/>
       <c r="L13" s="12"/>
       <c r="M13" s="12"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="H14" s="33"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="H15" s="33"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="H16" s="33"/>
-    </row>
-    <row r="17" spans="3:12" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="N13" s="12"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="I14" s="33"/>
+      <c r="J14" s="41"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="I15" s="33"/>
+      <c r="J15" s="41"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="I16" s="33"/>
+      <c r="J16" s="41"/>
+    </row>
+    <row r="17" spans="3:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="C17" s="13" t="s">
         <v>81</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="E17" s="38" t="s">
-        <v>105</v>
-      </c>
-      <c r="F17" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="G17" s="19"/>
-      <c r="H17" s="6"/>
+        <v>180</v>
+      </c>
+      <c r="E17" s="46" t="s">
+        <v>104</v>
+      </c>
+      <c r="F17" s="52" t="s">
+        <v>227</v>
+      </c>
+      <c r="G17" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="H17" s="19"/>
       <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="21" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="18" spans="3:12" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="J17" s="39" t="s">
+        <v>211</v>
+      </c>
+      <c r="K17" s="1"/>
+      <c r="L17" s="21" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="C18" s="13" t="s">
         <v>83</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="E18" s="38"/>
-      <c r="F18" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="G18" s="25" t="s">
-        <v>174</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>204</v>
+        <v>181</v>
+      </c>
+      <c r="E18" s="46"/>
+      <c r="F18" s="52" t="s">
+        <v>228</v>
+      </c>
+      <c r="G18" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="H18" s="25" t="s">
+        <v>212</v>
       </c>
       <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="21" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="19" spans="3:12" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="J18" s="42" t="s">
+        <v>213</v>
+      </c>
+      <c r="K18" s="6"/>
+      <c r="L18" s="21" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="C19" s="18" t="s">
         <v>86</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>185</v>
-      </c>
-      <c r="E19" s="38"/>
-      <c r="F19" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="E19" s="46"/>
+      <c r="F19" s="52" t="s">
+        <v>229</v>
+      </c>
+      <c r="G19" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="H19" s="19"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="42" t="s">
+        <v>214</v>
+      </c>
+      <c r="K19" s="6"/>
+      <c r="L19" s="21" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="20" spans="3:13" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="C20" s="50" t="s">
+        <v>187</v>
+      </c>
+      <c r="D20" s="47" t="s">
+        <v>203</v>
+      </c>
+      <c r="E20" s="46"/>
+      <c r="F20" s="52" t="s">
+        <v>230</v>
+      </c>
+      <c r="G20" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="G19" s="26"/>
-      <c r="H19" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="21" t="s">
+      <c r="H20" s="26"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="42" t="s">
+        <v>215</v>
+      </c>
+      <c r="K20" s="17"/>
+      <c r="L20" s="21" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="20" spans="3:12" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="C20" s="42" t="s">
-        <v>190</v>
-      </c>
-      <c r="D20" s="39" t="s">
-        <v>219</v>
-      </c>
-      <c r="E20" s="38"/>
-      <c r="F20" s="20" t="s">
+      <c r="M20" s="12"/>
+    </row>
+    <row r="21" spans="3:13" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="C21" s="50"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="52" t="s">
+        <v>230</v>
+      </c>
+      <c r="G21" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="G20" s="26"/>
-      <c r="H20" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="I20" s="1"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="21" t="s">
+      <c r="H21" s="26"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="42" t="s">
+        <v>231</v>
+      </c>
+      <c r="K21" s="17"/>
+      <c r="L21" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="L20" s="12"/>
-    </row>
-    <row r="21" spans="3:12" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="C21" s="42"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="20" t="s">
+      <c r="M21" s="17"/>
+    </row>
+    <row r="22" spans="3:13" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="C22" s="50"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="52" t="s">
+        <v>229</v>
+      </c>
+      <c r="G22" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="G21" s="26"/>
-      <c r="H21" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="I21" s="1"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="21" t="s">
-        <v>147</v>
-      </c>
-      <c r="L21" s="17"/>
-    </row>
-    <row r="22" spans="3:12" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="C22" s="42"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="G22" s="25" t="s">
-        <v>172</v>
-      </c>
-      <c r="H22" s="6" t="s">
-        <v>208</v>
-      </c>
+      <c r="H22" s="19"/>
       <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="21" t="s">
-        <v>173</v>
-      </c>
-      <c r="L22" s="12"/>
-    </row>
-    <row r="23" spans="3:12" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="C23" s="42" t="s">
-        <v>191</v>
-      </c>
-      <c r="D23" s="39" t="s">
-        <v>136</v>
+      <c r="J22" s="42" t="s">
+        <v>216</v>
+      </c>
+      <c r="K22" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="L22" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="M22" s="12"/>
+    </row>
+    <row r="23" spans="3:13" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="C23" s="50" t="s">
+        <v>188</v>
+      </c>
+      <c r="D23" s="47" t="s">
+        <v>135</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="F23" s="52" t="s">
+        <v>229</v>
+      </c>
+      <c r="G23" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="G23" s="27"/>
-      <c r="H23" s="17"/>
+      <c r="H23" s="27"/>
       <c r="I23" s="12"/>
-      <c r="K23" s="12" t="s">
+      <c r="J23" s="43" t="s">
+        <v>218</v>
+      </c>
+      <c r="K23" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="L23" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="M23" s="12"/>
+    </row>
+    <row r="24" spans="3:13" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="C24" s="50"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="F24" s="52" t="s">
+        <v>229</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H24" s="19"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="43" t="s">
+        <v>220</v>
+      </c>
+      <c r="K24" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="L24" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="L23" s="12"/>
-    </row>
-    <row r="24" spans="3:12" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="C24" s="42"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="G24" s="27"/>
-      <c r="H24" s="17" t="s">
-        <v>218</v>
-      </c>
-      <c r="I24" s="12"/>
-      <c r="K24" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="L24" s="12"/>
-    </row>
-    <row r="25" spans="3:12" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="C25" s="42"/>
-      <c r="D25" s="39"/>
+      <c r="M24" s="12"/>
+    </row>
+    <row r="25" spans="3:13" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="C25" s="50"/>
+      <c r="D25" s="47"/>
       <c r="E25" s="5"/>
-      <c r="F25" s="1"/>
+      <c r="F25" s="5"/>
       <c r="G25" s="1"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="12"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="6"/>
       <c r="J25" s="12"/>
       <c r="K25" s="12"/>
       <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="12">
